--- a/OrderSchedule.xlsx
+++ b/OrderSchedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heiko\Models\lernfabrik_v7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heiko\Models\lernfabrik_basemodel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F52F58-7E63-4FFC-868B-42CC312B3FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1CABCB-8AF4-437D-96B1-994FFCD7E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{87DF0DCA-4512-468B-93F4-C9DA0C399523}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D32341-57A8-49E9-9872-8A4C7F796AF7}">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216:C243"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2779,88 +2779,711 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1">
+        <v>45071.40763883102</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1">
+        <v>45071.407986053244</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1">
+        <v>45071.40833327546</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1">
+        <v>45071.408680497683</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="1"/>
+      <c r="A220" s="1">
+        <v>45071.409027719907</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1">
+        <v>45071.40937494213</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1">
+        <v>45071.409722164353</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>45071.410069386577</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="1"/>
+      <c r="A224" s="1">
+        <v>45071.410416608793</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>45071.410763831016</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>45071.411111053239</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>45071.411458275463</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>45071.411805497686</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>45071.412152719909</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>45071.41249988426</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>45071.412847106483</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>45071.413194328707</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>45071.413541550923</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>45071.413888773146</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>45071.414235995369</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>45071.414583217593</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>45071.414930439816</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>45071.415277662039</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>45071.415624884263</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>45071.415972106479</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>45071.416319328702</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>45071.416666550926</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>45071.417013773149</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>45071.417360995372</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>45071.417708217596</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>45071.418055439812</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>45071.418402662035</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>45071.418749884258</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>45071.419097106482</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>45071.419444328705</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>45071.419791550928</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>45071.420138773145</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>45071.420485995368</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>45071.420833217591</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>45071.421180439815</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>45071.421527662038</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>45071.421874826388</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>45071.422222048612</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>45071.422569270835</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>45071.422916493058</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>45071.423263715275</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>45071.423610937498</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>45071.423958159721</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>45071.424305381945</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>45071.424652604168</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>45071.424999826391</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>45071.425347048615</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>45071.425694270831</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>45071.426041493054</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>45071.426388715277</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>45071.426735937501</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>45071.427083159724</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>45071.427430381947</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>45071.427777604164</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>45071.428124826387</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>45071.42847204861</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>45071.428819270834</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>45071.429166493057</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>45071.42951371528</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
